--- a/전설의몽둥이.xlsx
+++ b/전설의몽둥이.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WD\Desktop\YSCode\01_Projects\Github\FarmMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B69221-F3D8-4787-A2BF-0671495DB015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C614F9AE-FDC9-4406-BC03-944674CCA4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DDF621EB-D882-4AC9-B935-B39F7F9C8181}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{DDF621EB-D882-4AC9-B935-B39F7F9C8181}"/>
   </bookViews>
   <sheets>
     <sheet name="수정" sheetId="1" r:id="rId1"/>
@@ -35,16 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
   <si>
     <t>기획</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그래픽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +244,106 @@
   </si>
   <si>
     <t>- 일시정지?</t>
+  </si>
+  <si>
+    <t>구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[플레이어 이동 메서드]</t>
+  </si>
+  <si>
+    <t>wasd 이동</t>
+  </si>
+  <si>
+    <t>마우스 클릭으로 UI 조작</t>
+  </si>
+  <si>
+    <t>[경작 메서드]</t>
+  </si>
+  <si>
+    <t>밭 범위</t>
+  </si>
+  <si>
+    <t>if (플레이어가 정해진 밭 범위 내에 들어오면)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "경작하기" UI 활성화</t>
+  </si>
+  <si>
+    <t>if (경작하기 버튼 누르면)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  인스턴시에이트(인벤토리 씨앗에 맞는 식물 오브젝트 소환)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (일정 시간 지나면)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    성장스크립트</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (다자란 오브젝트.activeself == true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "수확하기" UI 활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
+    <t>if (수확하기 버튼 누르면)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  디스트로이 (다 자란 식물) </t>
+  </si>
+  <si>
+    <t>[동적 개체 메서드]</t>
+  </si>
+  <si>
+    <t>if(낮일 때)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  밤인가?(bool) = false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  공격 개체 SetActive(false);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  포획 개체 : 오브젝트 풀로 땡겨오기;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (포획 시)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     포획 개체 리스트에서 해당 개체는 비활성화;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     플레이어 인벤토리 리스트에 "길들여진 개체" 추가;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>if(밤이 되었을 때)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  밤인가?(bool) = true;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  공격 개체 : 오브젝트 풀로 미리 땡겨와놓고 소환 (밤)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (사냥 성공 시)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    공격 개체 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    인스턴시에이트로 아이템 오브젝트 소환</t>
+  </si>
+  <si>
+    <t xml:space="preserve">집 - 강화, </t>
   </si>
 </sst>
 </file>
@@ -322,16 +418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>122308</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160408</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>286794</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>96002</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>629694</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>134102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -354,7 +450,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="3208408"/>
+          <a:off x="9305925" y="2903608"/>
           <a:ext cx="7097169" cy="5117194"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -664,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDF61FE-82B6-409D-8C66-35F70CA4BBD4}">
-  <dimension ref="B2:V20"/>
+  <dimension ref="B2:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -677,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -688,15 +784,15 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V3">
         <v>1</v>
@@ -704,13 +800,13 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="V4">
         <v>2</v>
@@ -718,10 +814,10 @@
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.15">
       <c r="P5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V5">
         <v>3</v>
@@ -729,50 +825,213 @@
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="O16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -798,217 +1057,217 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
